--- a/website/Formatos/FormatoTDC_P6.xlsx
+++ b/website/Formatos/FormatoTDC_P6.xlsx
@@ -33,49 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>IdColocacion</t>
-  </si>
-  <si>
-    <t>NumeroTarjeta</t>
-  </si>
-  <si>
-    <t>TipoProducto</t>
-  </si>
-  <si>
-    <t>FechaRealce</t>
-  </si>
-  <si>
-    <t>FechaActivacion</t>
-  </si>
-  <si>
-    <t>MontoAprobado</t>
-  </si>
-  <si>
-    <t>NumeroIndentificacion</t>
-  </si>
-  <si>
-    <t>EstadoTarjeta</t>
-  </si>
-  <si>
-    <t>Contrato</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>QNT EMPRESARIAL</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PENDIENTE ACUSE POR ALTA MAS.</t>
-  </si>
-  <si>
-    <t>CopiadeNumeroTarjeta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>no_TarjetaDeCredito</t>
   </si>
@@ -83,22 +41,19 @@
     <t>DocumentoCliente</t>
   </si>
   <si>
-    <t>ID BPM</t>
-  </si>
-  <si>
     <t>2022-03-26</t>
   </si>
   <si>
-    <t>CLARA MARIA*RODRIGUEZ</t>
+    <t>FechaEntrega</t>
+  </si>
+  <si>
+    <t>no_Guia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\$\ #,##0.00;\-\$\ #,##0.00"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,22 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,31 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,81 +475,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2">
+        <v>11223344</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6863</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4813960</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>901187660</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2">
-        <v>201823</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2">
-        <v>123456</v>
-      </c>
-      <c r="N2">
+      <c r="D2">
         <v>11223344</v>
       </c>
     </row>
